--- a/@_SALVAR PLANILHA AQUI/Arquivo de exportação.xlsx
+++ b/@_SALVAR PLANILHA AQUI/Arquivo de exportação.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\marketing\Weslley\Script\Script de automação\@_SALVAR PLANILHA AQUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Script de automação\@_SALVAR PLANILHA AQUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,29 +29,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,22 +55,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,116 +341,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/@_SALVAR PLANILHA AQUI/Arquivo de exportação.xlsx
+++ b/@_SALVAR PLANILHA AQUI/Arquivo de exportação.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\marketing\Weslley\Script\Script de automação\@_SALVAR PLANILHA AQUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Script de automação\@_SALVAR PLANILHA AQUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,34 +24,439 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
+  <si>
+    <t>PINGENTE OURO 18K MENINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7</t>
+  </si>
+  <si>
+    <t>151605</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MENINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3</t>
+  </si>
+  <si>
+    <t>151609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6</t>
+  </si>
+  <si>
+    <t>238494</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CRUCIFIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
+    <t>238502</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO DETALHES VAZADO</t>
+  </si>
+  <si>
+    <t>238506</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CANGA DE CORAÇÃO 2 LUGARES</t>
+  </si>
+  <si>
+    <t>238509</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MENINO VAZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4</t>
+  </si>
+  <si>
+    <t>238510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2</t>
+  </si>
+  <si>
+    <t>238511</t>
+  </si>
+  <si>
+    <t>238512</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MENINA VAZADA</t>
+  </si>
+  <si>
+    <t>238513</t>
+  </si>
+  <si>
+    <t>238529</t>
+  </si>
+  <si>
+    <t>PULSEIRA OURO 18K ELOS COM PINGENTE CORAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5</t>
+  </si>
+  <si>
+    <t>257588</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K NOSSA SENHORA DE APARECIDA</t>
+  </si>
+  <si>
+    <t>257589</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
+    <t>257657</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO COM FLORES E DETALHES VAZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7</t>
+  </si>
+  <si>
+    <t>257659</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5</t>
+  </si>
+  <si>
+    <t>259022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K CRUZ </t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>259023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K PLACA RETANGULAR COM DETALHE NA BORDA </t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>259025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K RETANGULAR COM FILETE </t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>259093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K MENINO VAZADO </t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>259094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K MENINA VAZADA </t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>259128</t>
+  </si>
+  <si>
+    <t>PULSEIRA INFANTIL OURO 18K ELOS COM PINGENTE CORAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3</t>
+  </si>
+  <si>
+    <t>259159</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MENINO VAZADO COM DETALHE EM ZIRCÔNIA</t>
+  </si>
+  <si>
+    <t>259160</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MENINA VAZADA COM DETALHE EM ZIRCÔNIA</t>
+  </si>
+  <si>
+    <t>259162</t>
+  </si>
+  <si>
+    <t>259163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8</t>
+  </si>
+  <si>
+    <t>259167</t>
+  </si>
+  <si>
+    <t>PULSEIRA OURO 18K ELOS PORTUGUES PINGENTE CORAÇÃO</t>
+  </si>
+  <si>
+    <t>259174</t>
+  </si>
+  <si>
+    <t>259178</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K ONÇA COM DETALHES VAZADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3</t>
+  </si>
+  <si>
+    <t>259180</t>
+  </si>
+  <si>
+    <t>259182</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO VAZADO CRAVEJADO</t>
+  </si>
+  <si>
+    <t>259183</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K NOSSA SENHORA DE APARECIDA COM DETALHES VAZADOS</t>
+  </si>
+  <si>
+    <t>259185</t>
+  </si>
+  <si>
+    <t>259186</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CRUCIFIXO TRABALHADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
+    <t>259190</t>
+  </si>
+  <si>
+    <t>259191</t>
+  </si>
+  <si>
+    <t>PULSEIRA OURO 18K ELOS COM PINGENTE CORAÇÃO TRES CORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.7</t>
+  </si>
+  <si>
+    <t>259192</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K MEDALHA DE SÃO BENTO</t>
+  </si>
+  <si>
+    <t>259193</t>
+  </si>
+  <si>
+    <t>259194</t>
+  </si>
+  <si>
+    <t>259205</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K PLACA LISA</t>
+  </si>
+  <si>
+    <t>259208</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K PLACA TRABALHADA</t>
+  </si>
+  <si>
+    <t>259209</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO VAZADO</t>
+  </si>
+  <si>
+    <t>259210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2</t>
+  </si>
+  <si>
+    <t>259212</t>
+  </si>
+  <si>
+    <t>259213</t>
+  </si>
+  <si>
+    <t>259227</t>
+  </si>
+  <si>
+    <t>PULSEIRA OURO 18K PINGENTES RELIGIOSOS E CORAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6</t>
+  </si>
+  <si>
+    <t>259244</t>
+  </si>
+  <si>
+    <t>PULSEIRA OURO 18K PINGENTES DE SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7</t>
+  </si>
+  <si>
+    <t>259248</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K FERRADURA COM CAVALO</t>
+  </si>
+  <si>
+    <t>259250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4</t>
+  </si>
+  <si>
+    <t>259253</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CRUZ LISA</t>
+  </si>
+  <si>
+    <t>259254</t>
+  </si>
+  <si>
+    <t>259256</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CRUZ</t>
+  </si>
+  <si>
+    <t>259258</t>
+  </si>
+  <si>
+    <t>259259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9</t>
+  </si>
+  <si>
+    <t>259260</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CRUZ DETALHE TORCIDA</t>
+  </si>
+  <si>
+    <t>259261</t>
+  </si>
+  <si>
+    <t>259263</t>
+  </si>
+  <si>
+    <t>259264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8</t>
+  </si>
+  <si>
+    <t>259267</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CAVALO</t>
+  </si>
+  <si>
+    <t>259268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINGENTE OURO 18K ONÇA LISA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 </t>
+  </si>
+  <si>
+    <t>259269</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CÍRCULO CRAVEJADO</t>
+  </si>
+  <si>
+    <t>259271</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO DETALHES VAZADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.6</t>
+  </si>
+  <si>
+    <t>259272</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO TRABALHADO</t>
+  </si>
+  <si>
+    <t>259274</t>
+  </si>
+  <si>
+    <t>259275</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO VAZADO TRABALHADO</t>
+  </si>
+  <si>
+    <t>259277</t>
+  </si>
+  <si>
+    <t>259278</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÕES CRAVEJADO E VAZADO</t>
+  </si>
+  <si>
+    <t>259280</t>
+  </si>
+  <si>
+    <t>PINGENTE OURO 18K CORAÇÃO TRÊS CORES</t>
+  </si>
+  <si>
+    <t>259284</t>
+  </si>
+  <si>
+    <t>259285</t>
+  </si>
+  <si>
+    <t>259295</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,22 +476,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,114 +762,799 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>151594</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
